--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/52680723/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/52680723/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9944790601730347</v>
+        <v>0.9899060130119324</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.993815541267395</v>
+        <v>0.9888080954551697</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9091271758079529</v>
+        <v>0.7907552123069763</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9939188957214355</v>
+        <v>0.9889193177223206</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9942875504493713</v>
+        <v>0.9895422458648682</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9949853420257568</v>
+        <v>0.9907446503639221</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9943042397499084</v>
+        <v>0.9895579218864441</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9949853420257568</v>
+        <v>0.9907446503639221</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9950582981109619</v>
+        <v>0.9908375144004822</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9953008890151978</v>
+        <v>0.9912310242652893</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9774611592292786</v>
+        <v>0.9478111267089844</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9947320222854614</v>
+        <v>0.9902296662330627</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9942763447761536</v>
+        <v>0.9896969199180603</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9938003420829773</v>
+        <v>0.9886834025382996</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9939432740211487</v>
+        <v>0.9889670014381409</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5129553079605103</v>
+        <v>0.3832152485847473</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9945797920227051</v>
+        <v>0.9899628758430481</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9952507019042969</v>
+        <v>0.9911807179450989</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9942362904548645</v>
+        <v>0.9894774556159973</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9947484135627747</v>
+        <v>0.9903274178504944</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9945682287216187</v>
+        <v>0.9900144338607788</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.994786262512207</v>
+        <v>0.9903491735458374</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9239200949668884</v>
+        <v>0.8186035752296448</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3994939029216766</v>
+        <v>0.2949466109275818</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9945489764213562</v>
+        <v>0.9899857044219971</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9943172335624695</v>
+        <v>0.9896316528320312</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9939160943031311</v>
+        <v>0.9889332056045532</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9932096600532532</v>
+        <v>0.9876936078071594</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9943742752075195</v>
+        <v>0.9896426796913147</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9784058332443237</v>
+        <v>0.966010570526123</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9786058068275452</v>
+        <v>0.94976407289505</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9738221168518066</v>
+        <v>0.9419503808021545</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9943335056304932</v>
+        <v>0.9895477294921875</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9757825136184692</v>
+        <v>0.9448943734169006</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9950212240219116</v>
+        <v>0.9907920360565186</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9291538596153259</v>
+        <v>0.8668431639671326</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9785251021385193</v>
+        <v>0.9662787914276123</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9950461387634277</v>
+        <v>0.9908071160316467</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9713563323020935</v>
+        <v>0.936961829662323</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9761770963668823</v>
+        <v>0.9623947739601135</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9697531461715698</v>
+        <v>0.9355855584144592</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9800938963890076</v>
+        <v>0.9691802859306335</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9773249626159668</v>
+        <v>0.963230311870575</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7154833674430847</v>
+        <v>0.5746427774429321</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9764466285705566</v>
+        <v>0.9625346660614014</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9953150749206543</v>
+        <v>0.9912137389183044</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9714420437812805</v>
+        <v>0.9537386298179626</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9593977928161621</v>
+        <v>0.9343754649162292</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9931957721710205</v>
+        <v>0.987689733505249</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9714420437812805</v>
+        <v>0.9537386298179626</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9711645841598511</v>
+        <v>0.9532137513160706</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9942939877510071</v>
+        <v>0.9895530939102173</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9951030015945435</v>
+        <v>0.9908972382545471</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9952722191810608</v>
+        <v>0.9912140965461731</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9741631150245667</v>
+        <v>0.9429815411567688</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9953153133392334</v>
+        <v>0.9912694692611694</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.994922935962677</v>
+        <v>0.9906157851219177</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9950462579727173</v>
+        <v>0.9907630085945129</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9949039220809937</v>
+        <v>0.9905577898025513</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9704651832580566</v>
+        <v>0.9370619654655457</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7201055884361267</v>
+        <v>0.6032448410987854</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.974168062210083</v>
+        <v>0.9425399899482727</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.974168062210083</v>
+        <v>0.9425399899482727</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9704071283340454</v>
+        <v>0.9366838335990906</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.974168062210083</v>
+        <v>0.9425399899482727</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9060763716697693</v>
+        <v>0.8581467866897583</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9942817687988281</v>
+        <v>0.9894822835922241</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9719567894935608</v>
+        <v>0.9382888078689575</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9919039607048035</v>
+        <v>0.9855920076370239</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9761106371879578</v>
+        <v>0.9455692172050476</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.994783341884613</v>
+        <v>0.9903692603111267</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9938957095146179</v>
+        <v>0.9889190793037415</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9761106371879578</v>
+        <v>0.9455692172050476</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9932002425193787</v>
+        <v>0.987656831741333</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9761106371879578</v>
+        <v>0.9455692172050476</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9945980310440063</v>
+        <v>0.9900617599487305</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9757699966430664</v>
+        <v>0.9455553889274597</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9932350516319275</v>
+        <v>0.987767219543457</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9757699966430664</v>
+        <v>0.9455553889274597</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9932170510292053</v>
+        <v>0.987779974937439</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9932170510292053</v>
+        <v>0.987779974937439</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9953392744064331</v>
+        <v>0.9913381338119507</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9767341613769531</v>
+        <v>0.94725501537323</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9945181012153625</v>
+        <v>0.9898775219917297</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9759363532066345</v>
+        <v>0.945906400680542</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9931897521018982</v>
+        <v>0.9876811504364014</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9947291016578674</v>
+        <v>0.9903075695037842</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9947239756584167</v>
+        <v>0.9903126955032349</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9947323799133301</v>
+        <v>0.9903069734573364</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9947220087051392</v>
+        <v>0.9903036952018738</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9947201013565063</v>
+        <v>0.9903124570846558</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9947184324264526</v>
+        <v>0.9902847409248352</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9952250719070435</v>
+        <v>0.9910995364189148</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7442012429237366</v>
+        <v>0.6634883880615234</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9952409267425537</v>
+        <v>0.9911682605743408</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9567955136299133</v>
+        <v>0.9139072895050049</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9942966103553772</v>
+        <v>0.9895296692848206</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.994509756565094</v>
+        <v>0.9898940920829773</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8471011519432068</v>
+        <v>0.7125272154808044</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9741292595863342</v>
+        <v>0.9587543606758118</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9938884377479553</v>
+        <v>0.9888203740119934</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9089049100875854</v>
+        <v>0.8628007769584656</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9942842125892639</v>
+        <v>0.9895139932632446</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9763521552085876</v>
+        <v>0.9632380604743958</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9301944375038147</v>
+        <v>0.8271738886833191</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9945969581604004</v>
+        <v>0.9900562763214111</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9784618616104126</v>
+        <v>0.9662629365921021</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9765195846557617</v>
+        <v>0.9627888798713684</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9781477451324463</v>
+        <v>0.9489201903343201</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9949204325675964</v>
+        <v>0.990592896938324</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9771308898925781</v>
+        <v>0.9467246532440186</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9930905699729919</v>
+        <v>0.9875277876853943</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9938229322433472</v>
+        <v>0.9887912273406982</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8319135904312134</v>
+        <v>0.6976198554039001</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.927690327167511</v>
+        <v>0.851466953754425</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9074678421020508</v>
+        <v>0.8602454662322998</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9952355027198792</v>
+        <v>0.9911094903945923</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9074678421020508</v>
+        <v>0.8602454662322998</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9952355027198792</v>
+        <v>0.9911094903945923</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9074678421020508</v>
+        <v>0.8602454662322998</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9952093958854675</v>
+        <v>0.9911174774169922</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8015586137771606</v>
+        <v>0.6681970953941345</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9921796321868896</v>
+        <v>0.986497700214386</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7301197648048401</v>
+        <v>0.5717201232910156</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9938987493515015</v>
+        <v>0.9888973832130432</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4823041558265686</v>
+        <v>0.3597018718719482</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9938398003578186</v>
+        <v>0.9887799024581909</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9948219060897827</v>
+        <v>0.9903740882873535</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9943390488624573</v>
+        <v>0.9895464777946472</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9920400381088257</v>
+        <v>0.9860969185829163</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9938995838165283</v>
+        <v>0.9889205098152161</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.993854820728302</v>
+        <v>0.9888802766799927</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9939150214195251</v>
+        <v>0.9889534711837769</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9932906627655029</v>
+        <v>0.98787921667099</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9948269724845886</v>
+        <v>0.9903899431228638</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9735279679298401</v>
+        <v>0.9418227672576904</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9948927164077759</v>
+        <v>0.9905581474304199</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9735279679298401</v>
+        <v>0.9418227672576904</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9931942224502563</v>
+        <v>0.9877097606658936</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9060763716697693</v>
+        <v>0.8581467866897583</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9945435523986816</v>
+        <v>0.9899181723594666</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9749182462692261</v>
+        <v>0.94295734167099</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.817590057849884</v>
+        <v>0.7246068120002747</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.778886079788208</v>
+        <v>0.6370323896408081</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9951428174972534</v>
+        <v>0.9909707307815552</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.930026650428772</v>
+        <v>0.8276078104972839</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9947777986526489</v>
+        <v>0.9903602600097656</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9301599860191345</v>
+        <v>0.8262590169906616</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9949036836624146</v>
+        <v>0.9905754327774048</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9308740496635437</v>
+        <v>0.8276446461677551</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9949800372123718</v>
+        <v>0.9906696081161499</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9694572687149048</v>
+        <v>0.9339513182640076</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9945192933082581</v>
+        <v>0.9899606704711914</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9944278001785278</v>
+        <v>0.9897819757461548</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9939073920249939</v>
+        <v>0.9889121055603027</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9737805128097534</v>
+        <v>0.9415221214294434</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9952023029327393</v>
+        <v>0.9910926222801208</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9676161408424377</v>
+        <v>0.930370569229126</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9743700623512268</v>
+        <v>0.9593134522438049</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.978152334690094</v>
+        <v>0.9491742849349976</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9743700623512268</v>
+        <v>0.9593134522438049</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9770575761795044</v>
+        <v>0.9469083547592163</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9932055473327637</v>
+        <v>0.9877375364303589</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9938815832138062</v>
+        <v>0.988852858543396</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9938796758651733</v>
+        <v>0.9889318943023682</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9938815832138062</v>
+        <v>0.988852858543396</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9938815832138062</v>
+        <v>0.988852858543396</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9938796758651733</v>
+        <v>0.9889318943023682</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9945631623268127</v>
+        <v>0.9899858832359314</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9919772744178772</v>
+        <v>0.9857285618782043</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9938763976097107</v>
+        <v>0.9888694286346436</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9946154952049255</v>
+        <v>0.9901173710823059</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9942664504051208</v>
+        <v>0.9895260334014893</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9091373682022095</v>
+        <v>0.8625579476356506</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9949470162391663</v>
+        <v>0.9906353354454041</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9949382543563843</v>
+        <v>0.9906150102615356</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9950062036514282</v>
+        <v>0.9907354712486267</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9949990510940552</v>
+        <v>0.9907411336898804</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9945576190948486</v>
+        <v>0.989984393119812</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9946856498718262</v>
+        <v>0.9902426600456238</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9946823716163635</v>
+        <v>0.9902509450912476</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.743676483631134</v>
+        <v>0.6362651586532593</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9943369030952454</v>
+        <v>0.9896340370178223</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9939448237419128</v>
+        <v>0.9889956712722778</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9025285243988037</v>
+        <v>0.8541670441627502</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9790270328521729</v>
+        <v>0.9672179818153381</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.994956910610199</v>
+        <v>0.9906656742095947</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.995015561580658</v>
+        <v>0.9907673001289368</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9951075315475464</v>
+        <v>0.9909329414367676</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.994537889957428</v>
+        <v>0.9899390339851379</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9238465428352356</v>
+        <v>0.8565226197242737</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9945182204246521</v>
+        <v>0.9899585843086243</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9946129322052002</v>
+        <v>0.9900819659233093</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9939050078392029</v>
+        <v>0.9889150261878967</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9745835661888123</v>
+        <v>0.9598609805107117</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9951565861701965</v>
+        <v>0.9909932017326355</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9938504695892334</v>
+        <v>0.9888262748718262</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7562845945358276</v>
+        <v>0.6649413704872131</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.991951584815979</v>
+        <v>0.9856348633766174</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4752651751041412</v>
+        <v>0.3463475406169891</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9938626289367676</v>
+        <v>0.9888409972190857</v>
       </c>
     </row>
   </sheetData>
